--- a/郑州小学排名.xlsx
+++ b/郑州小学排名.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\product\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919FDF5B-63AF-4C46-A07D-F200826C40BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C8AB6-4707-44A7-9F39-DC6F29B81370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>河南省实验小学</t>
   </si>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>农业路以北、东风路以南、信息学院路以东、经五路以西(新建小区除外)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优胜社区、优南社区、天下城社区、城中央社区、岗杜街1号院、岗杜街16号院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -590,6 +594,9 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
